--- a/Лабораторные.xlsx
+++ b/Лабораторные.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Крайванова</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -611,9 +611,11 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
